--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,14 +345,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1a9a118cb653759c3fcb3bd5060e6f9910c8c27008dd11fe4315f4635c9caa98</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fhnb vzc&lt;xz</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>jm gdxvzcn b fvdc&lt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,12 +376,29 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fhnb vzc&lt;xz</t>
+          <t xml:space="preserve"> fhnb vzc&lt;xz </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>jm gdxvzcn b fvdc&lt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MANUEL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MANUEL@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1a9a118cb653759c3fcb3bd5060e6f9910c8c27008dd11fe4315f4635c9caa98</t>
         </is>
       </c>
     </row>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,6 +402,23 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>carla</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>carla@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1a9a118cb653759c3fcb3bd5060e6f9910c8c27008dd11fe4315f4635c9caa98</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fhnb vzc&lt;xz </t>
+          <t xml:space="preserve"> fhnb vzc&lt;xz  </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -416,6 +416,23 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>1a9a118cb653759c3fcb3bd5060e6f9910c8c27008dd11fe4315f4635c9caa98</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>carla12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hugo_ferreira2002@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>a03ab19b866fc585b5cb1812a2f63ca861e7e7643ee5d43fd7106b623725fd67</t>
         </is>
       </c>
     </row>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,12 +376,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fhnb vzc&lt;xz  </t>
+          <t xml:space="preserve">Hugo Miguel Antunes Ferreira  </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>jm gdxvzcn b fvdc&lt;</t>
+          <t>Rua das flores nº67 3ºd</t>
         </is>
       </c>
     </row>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hugo Miguel Antunes Ferreira  </t>
+          <t xml:space="preserve">Hugo Miguel Antunes Ferreira   </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +436,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nayorken</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hugo_ferreira2002@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1a9a118cb653759c3fcb3bd5060e6f9910c8c27008dd11fe4315f4635c9caa98</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hugo Ferreira </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rua das flores </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hugo Miguel Antunes Ferreira   </t>
+          <t xml:space="preserve">Hugo Miguel Antunes Ferreira     </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hugo Miguel Antunes Ferreira     </t>
+          <t xml:space="preserve">Hugo Miguel Antunes Ferreira       </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hugo Miguel Antunes Ferreira       </t>
+          <t xml:space="preserve">Hugo Miguel Antunes Ferreira        </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hugo Miguel Antunes Ferreira        </t>
+          <t xml:space="preserve">Hugo Miguel Antunes Ferreira         </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hugo Miguel Antunes Ferreira         </t>
+          <t xml:space="preserve">Hugo Miguel Antunes Ferreira           </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
